--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,88</t>
+          <t>21,5; 29,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,58</t>
+          <t>12,49; 19,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 23,02</t>
+          <t>15,13; 23,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 20,75</t>
+          <t>9,01; 21,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,49; 47,3</t>
+          <t>38,54; 47,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 34,23</t>
+          <t>24,95; 34,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,3; 43,03</t>
+          <t>33,65; 43,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 42,9</t>
+          <t>28,17; 42,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,51</t>
+          <t>30,53; 36,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 25,23</t>
+          <t>19,91; 25,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 31,72</t>
+          <t>25,04; 31,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,67; 29,73</t>
+          <t>19,32; 29,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,82; 40,22</t>
+          <t>32,95; 39,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 22,47</t>
+          <t>16,54; 22,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 30,68</t>
+          <t>23,11; 30,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,68; 40,74</t>
+          <t>28,6; 40,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 48,92</t>
+          <t>41,07; 48,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 31,89</t>
+          <t>24,4; 31,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 40,86</t>
+          <t>32,94; 41,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,08; 40,87</t>
+          <t>30,57; 40,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,64; 43,37</t>
+          <t>37,47; 42,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,93</t>
+          <t>21,14; 26,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 34,34</t>
+          <t>29,16; 34,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 38,98</t>
+          <t>31,1; 38,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,4; 48,24</t>
+          <t>40,43; 48,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,98; 28,63</t>
+          <t>21,83; 28,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 38,84</t>
+          <t>31,32; 39,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,57; 37,93</t>
+          <t>29,24; 38,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,44; 48,36</t>
+          <t>40,76; 48,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 32,16</t>
+          <t>24,66; 31,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 38,41</t>
+          <t>31,03; 38,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,3; 42,09</t>
+          <t>34,62; 41,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,96; 47,5</t>
+          <t>41,6; 47,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,28; 29,04</t>
+          <t>24,6; 29,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,33; 37,37</t>
+          <t>32,01; 37,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,34; 38,85</t>
+          <t>33,49; 38,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 53,83</t>
+          <t>44,66; 53,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,19</t>
+          <t>21,16; 29,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 42,3</t>
+          <t>34,16; 42,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,89; 36,51</t>
+          <t>25,24; 36,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,36; 48,42</t>
+          <t>39,34; 48,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 32,66</t>
+          <t>24,44; 32,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 42,17</t>
+          <t>34,21; 42,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 40,27</t>
+          <t>33,23; 40,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,53; 49,93</t>
+          <t>43,71; 50,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 29,37</t>
+          <t>24,04; 29,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,47; 40,99</t>
+          <t>35,19; 41,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 36,72</t>
+          <t>30,3; 37,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,16; 55,6</t>
+          <t>45,41; 55,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,31</t>
+          <t>20,23; 29,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 40,4</t>
+          <t>31,16; 40,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 43,63</t>
+          <t>35,11; 43,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,69; 48,69</t>
+          <t>38,7; 48,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,22; 29,68</t>
+          <t>21,49; 30,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,51; 50,85</t>
+          <t>41,14; 50,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,37; 40,74</t>
+          <t>34,64; 40,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,57; 50,7</t>
+          <t>43,27; 50,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,39; 28,64</t>
+          <t>22,22; 28,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,6; 44,35</t>
+          <t>37,52; 44,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,97; 40,89</t>
+          <t>36,03; 40,93</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,59</t>
+          <t>38,71; 47,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,48; 28,02</t>
+          <t>20,23; 27,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,78; 47,65</t>
+          <t>40,17; 47,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,79; 38,88</t>
+          <t>32,46; 38,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,33; 58,08</t>
+          <t>50,33; 58,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 46,24</t>
+          <t>38,34; 45,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,66; 61,55</t>
+          <t>53,78; 61,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 51,53</t>
+          <t>31,34; 51,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,64; 52,52</t>
+          <t>46,68; 52,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,8; 37,26</t>
+          <t>31,44; 37,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,88; 54,59</t>
+          <t>48,84; 54,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,26; 45,0</t>
+          <t>32,56; 44,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,35; 42,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,06; 24,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,12; 35,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,61; 34,53</t>
+          <t>30,34; 34,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,28; 47,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,39; 32,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,95; 44,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,53; 41,15</t>
+          <t>35,19; 40,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,39; 44,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,72; 27,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,13; 39,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,95; 37,29</t>
+          <t>34,02; 37,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,5; 29,42</t>
+          <t>21,66; 29,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,64</t>
+          <t>12,6; 19,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 23,41</t>
+          <t>15,35; 23,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,54; 47,42</t>
+          <t>38,21; 47,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,95; 34,09</t>
+          <t>24,76; 33,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,65; 43,16</t>
+          <t>33,39; 43,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,53; 36,65</t>
+          <t>30,43; 36,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 25,48</t>
+          <t>19,48; 25,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,04; 31,49</t>
+          <t>25,37; 31,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,95; 39,82</t>
+          <t>32,87; 40,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 22,76</t>
+          <t>16,48; 22,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,31</t>
+          <t>23,16; 30,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,07; 48,95</t>
+          <t>40,49; 48,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,4; 31,79</t>
+          <t>24,31; 31,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 41,1</t>
+          <t>32,97; 41,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,47; 42,96</t>
+          <t>37,53; 43,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 26,06</t>
+          <t>21,24; 25,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,16; 34,74</t>
+          <t>28,89; 34,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,43; 48,45</t>
+          <t>40,23; 48,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,83; 28,25</t>
+          <t>21,76; 28,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,32; 39,05</t>
+          <t>31,6; 38,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,76; 48,64</t>
+          <t>40,8; 48,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 31,61</t>
+          <t>24,95; 31,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 38,24</t>
+          <t>31,28; 38,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,6; 47,28</t>
+          <t>41,64; 47,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,6; 29,17</t>
+          <t>24,3; 29,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,01; 37,68</t>
+          <t>32,41; 37,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 53,71</t>
+          <t>44,83; 53,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 29,21</t>
+          <t>21,49; 28,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,16; 42,16</t>
+          <t>34,25; 42,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,34; 48,65</t>
+          <t>39,52; 48,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 32,26</t>
+          <t>24,93; 32,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,21; 42,07</t>
+          <t>34,3; 42,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,71; 50,16</t>
+          <t>43,89; 50,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,55</t>
+          <t>24,15; 29,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,19; 41,3</t>
+          <t>35,71; 41,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,41; 55,82</t>
+          <t>45,28; 55,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,23; 29,84</t>
+          <t>20,75; 28,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,16; 40,15</t>
+          <t>31,36; 40,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,7; 48,82</t>
+          <t>39,09; 48,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,49; 30,37</t>
+          <t>21,35; 29,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,14; 50,49</t>
+          <t>41,61; 51,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,27; 50,48</t>
+          <t>43,38; 50,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,22; 28,45</t>
+          <t>22,23; 28,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,52; 44,01</t>
+          <t>37,85; 44,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,71; 47,66</t>
+          <t>39,18; 48,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,23; 27,81</t>
+          <t>20,51; 27,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,17; 47,44</t>
+          <t>40,21; 47,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,33; 58,33</t>
+          <t>50,15; 58,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,34; 45,61</t>
+          <t>38,91; 46,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,78; 61,46</t>
+          <t>53,36; 61,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,68; 52,37</t>
+          <t>46,64; 52,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,44; 37,32</t>
+          <t>31,38; 37,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,84; 54,35</t>
+          <t>48,66; 54,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,79</t>
+          <t>39,34; 42,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 24,18</t>
+          <t>21,01; 23,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,12; 35,42</t>
+          <t>32,18; 35,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,28; 47,71</t>
+          <t>44,43; 47,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,39; 32,61</t>
+          <t>29,33; 32,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,95; 44,57</t>
+          <t>40,86; 44,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,39; 44,89</t>
+          <t>42,4; 44,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,79</t>
+          <t>25,8; 27,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,13; 39,51</t>
+          <t>37,19; 39,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,69</t>
+          <t>21,44; 29,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,4</t>
+          <t>12,63; 19,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,35; 23,46</t>
+          <t>15,33; 23,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 21,52</t>
+          <t>9,15; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 47,15</t>
+          <t>38,49; 47,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,7</t>
+          <t>25,23; 34,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,39; 43,09</t>
+          <t>33,3; 43,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,17; 42,88</t>
+          <t>28,31; 42,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,43; 36,74</t>
+          <t>30,69; 36,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,48; 25,2</t>
+          <t>19,62; 25,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,37; 31,44</t>
+          <t>25,13; 31,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 29,21</t>
+          <t>19,67; 29,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 40,12</t>
+          <t>32,82; 40,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 22,58</t>
+          <t>16,57; 22,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 30,45</t>
+          <t>23,16; 30,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,6; 40,52</t>
+          <t>29,68; 40,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 48,65</t>
+          <t>40,79; 48,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,31; 31,38</t>
+          <t>24,48; 31,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 41,35</t>
+          <t>33,21; 40,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 40,46</t>
+          <t>31,08; 40,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,42</t>
+          <t>37,64; 43,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,24; 25,92</t>
+          <t>21,13; 25,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,39</t>
+          <t>28,86; 34,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,48</t>
+          <t>31,45; 38,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,23; 48,71</t>
+          <t>40,4; 48,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,76; 28,46</t>
+          <t>21,98; 28,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,6; 38,76</t>
+          <t>31,09; 38,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,24; 38,29</t>
+          <t>29,57; 37,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,8; 48,46</t>
+          <t>40,44; 48,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 31,64</t>
+          <t>25,24; 32,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,28; 38,82</t>
+          <t>31,29; 38,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,99</t>
+          <t>35,3; 42,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,64; 47,35</t>
+          <t>41,96; 47,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,3; 29,02</t>
+          <t>24,28; 29,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 37,69</t>
+          <t>32,33; 37,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,49; 38,79</t>
+          <t>33,34; 38,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,83; 53,82</t>
+          <t>44,66; 53,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,49; 28,7</t>
+          <t>21,48; 29,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 42,3</t>
+          <t>34,24; 42,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,24; 36,63</t>
+          <t>24,89; 36,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,52; 48,45</t>
+          <t>39,36; 48,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,3</t>
+          <t>24,83; 32,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,3; 42,44</t>
+          <t>34,29; 42,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,23; 40,14</t>
+          <t>33,12; 40,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,89; 50,24</t>
+          <t>43,53; 49,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 29,37</t>
+          <t>23,9; 29,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,71; 41,14</t>
+          <t>35,47; 40,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 37,15</t>
+          <t>29,88; 36,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,28; 55,62</t>
+          <t>45,16; 55,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,75; 28,99</t>
+          <t>20,74; 29,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,36; 40,05</t>
+          <t>30,61; 40,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,2</t>
+          <t>35,66; 43,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,09; 48,75</t>
+          <t>38,69; 48,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 29,66</t>
+          <t>21,22; 29,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,61; 51,31</t>
+          <t>41,51; 50,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,64; 40,62</t>
+          <t>34,37; 40,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,38; 50,7</t>
+          <t>43,57; 50,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,23; 28,19</t>
+          <t>22,39; 28,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,85; 44,2</t>
+          <t>37,6; 44,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,03; 40,93</t>
+          <t>35,97; 40,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,18; 48,32</t>
+          <t>39,11; 47,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,51; 27,96</t>
+          <t>20,48; 28,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,21; 47,82</t>
+          <t>39,78; 47,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,46; 38,71</t>
+          <t>32,79; 38,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,15; 58,15</t>
+          <t>50,33; 58,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,91; 46,3</t>
+          <t>38,67; 46,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,36; 61,56</t>
+          <t>53,66; 61,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,34; 51,59</t>
+          <t>32,7; 51,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,64; 52,31</t>
+          <t>46,64; 52,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,38; 37,11</t>
+          <t>31,8; 37,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,66; 54,27</t>
+          <t>48,88; 54,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,56; 44,87</t>
+          <t>32,26; 45,0</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,34; 42,7</t>
+          <t>39,18; 42,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,18; 35,4</t>
+          <t>32,19; 35,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 34,39</t>
+          <t>30,61; 34,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,43; 47,86</t>
+          <t>44,36; 47,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,33; 32,53</t>
+          <t>29,27; 32,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,86; 44,49</t>
+          <t>41,15; 44,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,19; 40,84</t>
+          <t>35,53; 41,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,4; 44,88</t>
+          <t>42,42; 44,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,8; 27,93</t>
+          <t>25,74; 27,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,19; 39,58</t>
+          <t>37,31; 39,61</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,35</t>
+          <t>33,95; 37,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 20,75</t>
+          <t>9,37; 22,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 42,9</t>
+          <t>29,86; 44,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,67; 29,73</t>
+          <t>19,68; 30,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>33,77%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,68; 40,74</t>
+          <t>30,61; 41,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,08; 40,87</t>
+          <t>22,29; 39,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 38,98</t>
+          <t>26,21; 38,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>36,66%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,57; 37,93</t>
+          <t>30,19; 38,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,3; 42,09</t>
+          <t>35,96; 42,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,34; 38,85</t>
+          <t>33,89; 39,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>31,2%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,89; 36,51</t>
+          <t>11,69; 36,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 40,27</t>
+          <t>34,24; 48,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 36,72</t>
+          <t>18,74; 37,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 43,63</t>
+          <t>35,65; 43,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,37; 40,74</t>
+          <t>34,49; 40,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,97; 40,89</t>
+          <t>36,01; 40,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,59</t>
+          <t>33,3; 44,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,48; 28,02</t>
+          <t>17,05; 26,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,78; 47,65</t>
+          <t>32,41; 43,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,79; 38,88</t>
+          <t>27,54; 35,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,33; 58,08</t>
+          <t>43,26; 52,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 46,24</t>
+          <t>27,96; 38,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,66; 61,55</t>
+          <t>41,1; 51,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 51,53</t>
+          <t>8,66; 37,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,64; 52,52</t>
+          <t>40,25; 47,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,8; 37,26</t>
+          <t>24,07; 31,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,88; 54,59</t>
+          <t>38,58; 45,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,26; 45,0</t>
+          <t>12,01; 35,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>54,47%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>42,39; 55,9</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 33,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45,49; 56,92</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36,72; 46,07</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55,24; 66,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45,99; 56,92</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>62,7; 73,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60,1; 66,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52,31; 61,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>37,32; 45,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>57,75; 65,63</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51,74; 57,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41,07%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33,82%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46,13%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>39,18; 42,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>21,01; 23,9</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>32,19; 35,62</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>30,61; 34,53</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 33,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>44,36; 47,95</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>29,27; 32,43</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>41,15; 44,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>35,53; 41,15</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31,84; 41,39</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>42,42; 44,95</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>25,74; 27,83</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>37,31; 39,61</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>33,95; 37,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30,02; 36,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,88</t>
+          <t>21,52; 29,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,58</t>
+          <t>12,46; 19,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 23,02</t>
+          <t>15,21; 22,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 22,45</t>
+          <t>8,67; 21,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,49; 47,3</t>
+          <t>38,28; 47,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 34,23</t>
+          <t>25,01; 33,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,3; 43,03</t>
+          <t>33,99; 43,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,86; 44,91</t>
+          <t>30,36; 45,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,51</t>
+          <t>30,74; 36,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 25,23</t>
+          <t>19,37; 25,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 31,72</t>
+          <t>25,46; 31,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 30,31</t>
+          <t>19,68; 29,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,82; 40,22</t>
+          <t>32,82; 40,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 22,47</t>
+          <t>16,85; 22,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 30,68</t>
+          <t>23,11; 30,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,61; 41,99</t>
+          <t>30,16; 41,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 48,92</t>
+          <t>40,52; 48,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 31,89</t>
+          <t>23,8; 31,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 40,86</t>
+          <t>32,78; 40,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,29; 39,16</t>
+          <t>18,69; 39,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,64; 43,37</t>
+          <t>37,67; 42,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,93</t>
+          <t>21,16; 25,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 34,34</t>
+          <t>29,06; 34,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,21; 38,4</t>
+          <t>25,99; 38,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,4; 48,24</t>
+          <t>40,33; 48,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,98; 28,63</t>
+          <t>21,71; 28,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 38,84</t>
+          <t>31,33; 38,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,19; 38,66</t>
+          <t>30,28; 38,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,44; 48,36</t>
+          <t>40,81; 48,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 32,16</t>
+          <t>24,8; 32,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 38,41</t>
+          <t>30,96; 38,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,96; 42,7</t>
+          <t>35,51; 42,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,96; 47,5</t>
+          <t>41,7; 47,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,28; 29,04</t>
+          <t>24,2; 28,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,33; 37,37</t>
+          <t>32,57; 37,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,89; 39,45</t>
+          <t>33,92; 39,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 53,83</t>
+          <t>44,71; 53,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,19</t>
+          <t>21,43; 28,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 42,3</t>
+          <t>34,46; 42,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 36,03</t>
+          <t>10,72; 36,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,36; 48,42</t>
+          <t>39,57; 48,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 32,66</t>
+          <t>24,6; 32,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 42,17</t>
+          <t>34,4; 42,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 48,2</t>
+          <t>34,51; 48,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,53; 49,93</t>
+          <t>43,6; 49,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 29,37</t>
+          <t>24,2; 29,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,47; 40,99</t>
+          <t>35,75; 41,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 37,62</t>
+          <t>18,25; 38,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,16; 55,6</t>
+          <t>45,4; 55,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,31</t>
+          <t>20,81; 29,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 40,4</t>
+          <t>31,38; 40,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,65; 43,68</t>
+          <t>35,3; 42,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,69; 48,69</t>
+          <t>38,74; 49,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,22; 29,68</t>
+          <t>21,54; 30,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,51; 50,85</t>
+          <t>41,07; 50,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,49; 40,76</t>
+          <t>34,56; 40,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,57; 50,7</t>
+          <t>43,45; 50,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,39; 28,64</t>
+          <t>21,98; 28,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,6; 44,35</t>
+          <t>37,94; 44,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,01; 40,92</t>
+          <t>36,11; 41,09</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,3; 44,35</t>
+          <t>33,29; 44,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 26,73</t>
+          <t>16,66; 26,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,41; 43,47</t>
+          <t>33,05; 43,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 35,05</t>
+          <t>27,37; 35,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,26; 52,91</t>
+          <t>43,08; 52,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,96; 38,25</t>
+          <t>27,98; 37,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,1; 51,03</t>
+          <t>41,04; 51,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 37,88</t>
+          <t>10,24; 38,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,25; 47,46</t>
+          <t>40,13; 47,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,21</t>
+          <t>24,05; 31,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,58; 45,7</t>
+          <t>38,42; 45,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,01; 35,09</t>
+          <t>11,9; 34,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,39; 55,9</t>
+          <t>42,74; 56,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,08; 33,74</t>
+          <t>22,1; 34,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,49; 56,92</t>
+          <t>45,36; 57,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,72; 46,07</t>
+          <t>37,41; 46,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,24; 66,92</t>
+          <t>54,75; 66,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,99; 56,92</t>
+          <t>45,93; 56,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,7; 73,48</t>
+          <t>63,28; 73,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,1; 66,61</t>
+          <t>60,0; 66,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,31; 61,21</t>
+          <t>52,08; 61,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37,32; 45,82</t>
+          <t>37,93; 45,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>57,75; 65,63</t>
+          <t>57,69; 65,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,74; 57,38</t>
+          <t>51,69; 57,35</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,54; 42,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,01; 23,9</t>
+          <t>21,05; 24,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,19; 35,62</t>
+          <t>32,17; 35,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,86</t>
+          <t>23,33; 33,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,33; 47,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,27; 32,43</t>
+          <t>29,29; 32,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,15; 44,52</t>
+          <t>40,96; 44,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,39</t>
+          <t>30,91; 41,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,41; 44,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,74; 27,83</t>
+          <t>25,73; 27,8</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>37,31; 39,61</t>
+          <t>37,04; 39,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,02; 36,85</t>
+          <t>30,08; 37,09</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no realiza actividad física en su tiempo libre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>123915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71310</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>79388</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57763</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>194946</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>126252</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>151343</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>115072</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>318861</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>197562</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>230732</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>172835</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104950; 145063</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56590; 87110</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63806; 96455</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34699; 87040</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>175363; 216381</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>107589; 144493</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>134520; 171488</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95081; 140997</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>290699; 347765</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>171344; 223636</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>207587; 258701</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>140340; 209471</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>261782</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>133591</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>157201</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>149562</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>275749</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>170560</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>208483</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>165802</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>537530</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>304152</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>365684</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>315363</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>236506; 288727</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>115462; 154147</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>136477; 180207</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>127370; 175965</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>249320; 299388</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>145261; 193610</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>184744; 229920</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>95609; 200430</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>503185; 573780</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>274145; 334308</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>335393; 396076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>242689; 359634</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>280173</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>170514</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>234453</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>183535</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>301170</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>200494</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>230148</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>210475</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>581343</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>371007</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>464601</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>394010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>254713; 305643</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>148012; 192783</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>209648; 259455</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>161628; 205310</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>275442; 327845</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>176310; 228362</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>204760; 255291</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>192042; 229244</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>544783; 617290</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>337007; 402375</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>433319; 501111</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>364525; 425124</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>254209</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153019</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>247415</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>224352</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>222075</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>175224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247916</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274506</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>476284</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>328243</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>495332</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>498858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>230135; 277212</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>131721; 174571</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>222635; 274902</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>95096; 323526</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>199446; 244384</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>151559; 200317</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>223313; 274177</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>245772; 345735</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>444157; 508028</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>297843; 367545</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>462981; 537582</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>291810; 608949</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>191416</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106421</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>170949</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>219753</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>175328</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>114230</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>228840</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>204671</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>366743</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>220652</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>399789</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>424424</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>172075; 210685</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>89363; 127327</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>149986; 193788</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>197413; 239759</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>154892; 197777</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>96448; 135281</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>204046; 252033</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>187822; 219924</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>338404; 392394</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>192829; 247333</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>369823; 434676</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>398190; 453188</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>112333</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>66105</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>126800</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>114569</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>162270</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>116168</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>173837</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>148857</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>274603</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>182272</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>300637</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>263426</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>96241; 129155</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51609; 82461</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>110487; 145439</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>100541; 129189</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>145858; 179135</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>99057; 134422</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>155051; 193497</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62261; 231102</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>251860; 300168</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>159633; 208467</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>273583; 327381</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>116003; 339863</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>103300</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>68768</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>131737</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>116568</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>199526</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>197901</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>273800</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>267629</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>302825</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>266669</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>405537</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>384196</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>89265; 117653</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>55205; 84968</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>116564; 146526</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>105144; 129984</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>179581; 216949</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>178138; 218068</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>253220; 295803</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>254579; 280761</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>279603; 327889</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>241869; 293172</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>379139; 431035</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>364597; 404499</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1327127</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>769729</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1147944</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1066102</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1531062</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1100829</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1514368</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1387012</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2858190</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1870558</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2662312</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2453114</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1277681; 1387470</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>720971; 825293</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1091965; 1204174</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>804984; 1168999</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1471330; 1592159</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1042002; 1157285</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1451762; 1571420</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1129133; 1500600</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2777688; 2943935</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1796791; 1940903</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2570329; 2735966</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2136716; 2634551</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>